--- a/results/mp/logistic/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,42 +43,36 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -100,73 +94,79 @@
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>friends</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>true</t>
   </si>
   <si>
     <t>join</t>
@@ -175,25 +175,22 @@
     <t>better</t>
   </si>
   <si>
-    <t>true</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>well</t>
   </si>
   <si>
     <t>boost</t>
@@ -202,43 +199,43 @@
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -596,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -715,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,31 +830,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>0.925</v>
+      </c>
+      <c r="L6">
+        <v>111</v>
+      </c>
+      <c r="M6">
+        <v>111</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5405405405405406</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L7">
         <v>17</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L7">
-        <v>13</v>
-      </c>
       <c r="M7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -915,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,16 +933,16 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4444444444444444</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4333333333333333</v>
+        <v>0.3862433862433862</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3915343915343915</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C12">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.825065274151436</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L12">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M12">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3236434108527132</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D13">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8207547169811321</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3137254901960784</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8181818181818182</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2545454545454545</v>
+        <v>0.24</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2372881355932203</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.8048780487804879</v>
+        <v>0.796875</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2133333333333333</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7890625</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L17">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M17">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,28 +1412,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1812080536912752</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>122</v>
+        <v>3090</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>0.7777777777777778</v>
@@ -1461,41 +1458,17 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>238</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1507,45 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>0.12</v>
-      </c>
-      <c r="F20">
-        <v>0.88</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3090</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7727272727272727</v>
+        <v>0.75625</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.7625</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1635,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1661,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.7446808510638298</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1687,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1713,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6976744186046512</v>
+        <v>0.6875</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1739,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.6825396825396826</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1765,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1791,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1817,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1843,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1869,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.6147058823529412</v>
+        <v>0.64</v>
       </c>
       <c r="L33">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1895,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.5833333333333334</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1921,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.5714285714285714</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1947,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.5652173913043478</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1973,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.5538461538461539</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1999,21 +1948,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.5531914893617021</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L38">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2025,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.5491525423728814</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L39">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="M39">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2051,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.5481171548117155</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L40">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M40">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2077,21 +2026,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.5454545454545454</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2103,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.5142857142857142</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2129,15 +2078,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -2155,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2181,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.4606741573033708</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2207,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.4047619047619048</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2233,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K47">
-        <v>0.3529411764705883</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2259,21 +2208,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K48">
-        <v>0.3111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2285,21 +2234,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K49">
-        <v>0.3076923076923077</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2311,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K50">
-        <v>0.2465753424657534</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2337,7 +2286,33 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>13</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
